--- a/400模型/JS_Mons400.xlsx
+++ b/400模型/JS_Mons400.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,11 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>J_index400</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>LastTime</t>
         </is>
       </c>
@@ -625,8 +630,11 @@
       <c r="W2" t="n">
         <v>5280</v>
       </c>
-      <c r="X2" s="2" t="n">
-        <v>44075.67763888889</v>
+      <c r="X2" t="n">
+        <v>14597.6</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>44075.89318287037</v>
       </c>
     </row>
   </sheetData>
